--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,34 +514,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20123456789</t>
+          <t>20608430301</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>987654</v>
+        <v>6315</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>F001</t>
+          <t>BEW3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00001234</t>
+          <t>00425292</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Consultoría</t>
+          <t>Otros gastos de viaje</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>540</v>
+        <v>2.54</v>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3990</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="3">
@@ -570,34 +570,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20123456789</t>
+          <t>20512002090</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>654321</v>
+        <v>6343</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>F001</t>
+          <t>BG53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>00001234</t>
+          <t>00222840</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Consultoría</t>
+          <t>Mantto y Reparacion - Inmuebles, maquinaria y equipo</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>64.89</v>
       </c>
       <c r="L3" t="n">
-        <v>450</v>
+        <v>11.68</v>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3250</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -626,34 +626,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20123456789</t>
+          <t>20608430301</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>123789</v>
+        <v>6315</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>F001</t>
+          <t>BEW3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00001234</t>
+          <t>00425292</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Consultoría</t>
+          <t>Otros gastos de viaje</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -665,16 +665,1496 @@
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3200</v>
+        <v>14.11</v>
       </c>
       <c r="L4" t="n">
-        <v>576</v>
+        <v>2.54</v>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4226</v>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6322</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00426123</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Asesoria - Legal y tributaria</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6313</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alojamiento</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>63112</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Servicio transporte De pasajeros</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6351</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alquileres - Terrenos</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6327</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Asesoria - Producción</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6352</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alquileres - Edificaciones</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6327</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Asesoria - Producción</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>63111</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Servicio transporte De carga</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>63111</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Servicio transporte De carga</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6312</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Correos</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6351</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Alquileres - Terrenos</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6344</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mantto y Reparacion - Intangibles</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6323</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Asesoria - Auditoría y contable</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6351</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alquileres - Terrenos</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6343</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Mantto y Reparacion - Inmuebles, maquinaria y equipo</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6321</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Asesoria - Administrativa</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6327</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Asesoria - Producción</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6312</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Correos</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6327</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Asesoria - Producción</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6591</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Donaciones</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>63111</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Servicio transporte De carga</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6315</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Otros gastos de viaje</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>63111</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Servicio transporte De carga</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6321</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Asesoria - Administrativa</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6352</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Alquileres - Edificaciones</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6327</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Asesoria - Producción</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>1700</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,15 +509,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45546</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>45518</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Boleta de Venta</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>6314</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
@@ -525,71 +531,73 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>293.54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20608430301</t>
-        </is>
-      </c>
+        <v>45548</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6313</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>BEW3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>00425292</t>
-        </is>
-      </c>
+        <v>63112</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20511315922</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6324</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -597,12 +605,18 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
       <c r="M4" t="n">
-        <v>12324</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +637,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6313</v>
+        <v>6324</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -661,50 +675,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20608430301</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>6313</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>BEW3</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>00425292</t>
-        </is>
-      </c>
+        <v>45548</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>16.7</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="7">
@@ -712,294 +700,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20608430301</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>6321</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BEW3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>00425292</t>
-        </is>
-      </c>
+        <v>45548</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20608430301</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6324</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>BEW3</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>00425292</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20608430301</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>6323</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>BEW3</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>00425292</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45546</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6322</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K11" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>293.54</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45546</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>12</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,14 +573,18 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6324</v>
+        <v>6326</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>B255</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0000023</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -590,11 +594,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>11.11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
         <v>0.92</v>
@@ -605,27 +611,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45518</v>
+        <v>45597</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20508565934</t>
+          <t>00000000000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Recibo de Movilidad</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>63112</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BL22</t>
+          <t>----</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>00000001</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -633,20 +641,18 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>246.28</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.33</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>293.54</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="5">
@@ -666,7 +672,9 @@
           <t>Boleta de Venta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>6327</v>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>BL22</t>
@@ -703,50 +711,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45518</v>
+        <v>45603</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20508565934</t>
+          <t>00000000000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6324</v>
+        <v>63112</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BL22</t>
+          <t>----</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>00000001</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3.75</v>
-      </c>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>246.28</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.33</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>293.54</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="7">
@@ -754,11 +760,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20511315922</t>
+          <t>20508565934</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -767,14 +773,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6324</v>
+        <v>6353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B255</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -784,14 +794,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>246.28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>44.33</v>
+      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M7" t="n">
-        <v>0.92</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="8">
@@ -799,29 +811,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45508</v>
+        <v>45602</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20608430301</t>
+          <t>00000000000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6323</v>
+        <v>63112</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BEW3</t>
+          <t>----</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00425292</t>
+          <t>00000001</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -829,20 +841,18 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>14.11</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.7</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="9">
@@ -850,44 +860,48 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45514</v>
+        <v>45621</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20511315922</t>
+          <t>00000000000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6322</v>
+        <v>63112</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B255</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00000001</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.92</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="10">
@@ -895,29 +909,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45518</v>
+        <v>45601</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20508565934</t>
+          <t>00000000000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6325</v>
+        <v>63112</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BL22</t>
+          <t>----</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>00000001</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -925,20 +939,18 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>246.28</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>44.33</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>9709.389999999999</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11">
@@ -959,7 +971,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6322</v>
+        <v>6324</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -997,11 +1009,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20511315922</t>
+          <t>20508565934</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1010,14 +1022,18 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6322</v>
+        <v>6324</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B255</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -1027,14 +1043,16 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>246.28</v>
+      </c>
+      <c r="K12" t="n">
+        <v>44.33</v>
+      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M12" t="n">
-        <v>0.92</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="13">
@@ -1046,7 +1064,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20512002090</t>
+          <t>20608430301</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1055,16 +1073,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6322</v>
+        <v>6315</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BG53</t>
+          <t>BEW3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00222840</t>
+          <t>00425292</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1076,16 +1094,16 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>64.89</v>
+        <v>14.11</v>
       </c>
       <c r="K13" t="n">
-        <v>11.68</v>
+        <v>2.54</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M13" t="n">
-        <v>76.59999999999999</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="14">
@@ -1093,11 +1111,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45518</v>
+        <v>45508</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20508565934</t>
+          <t>20512002090</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1106,16 +1124,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6312</v>
+        <v>6313</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BL22</t>
+          <t>BG53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>00222840</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1127,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>246.28</v>
+        <v>64.89</v>
       </c>
       <c r="K14" t="n">
-        <v>44.33</v>
+        <v>11.68</v>
       </c>
       <c r="L14" t="n">
-        <v>2.93</v>
+        <v>0.03</v>
       </c>
       <c r="M14" t="n">
-        <v>293.54</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1144,29 +1162,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>00000000000</t>
-        </is>
-      </c>
+        <v>45623</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Recibo de Movilidad</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>63112</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1175,17 +1183,11 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>12213</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="16">
@@ -1193,29 +1195,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45609</v>
+        <v>45581</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00000000000</t>
+          <t>20553190143</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Recibo de Movilidad</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>63112</v>
+        <v>6351</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>BB01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>00032660</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1223,18 +1225,20 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="M16" t="n">
-        <v>11111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1242,48 +1246,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>00000000000</t>
-        </is>
-      </c>
+        <v>45623</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Recibo de Movilidad</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>63112</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>222222</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18">
@@ -1291,29 +1279,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
+        <v>45624</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1321,20 +1299,12 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K18" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.93</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>293.54</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="19">
@@ -1342,50 +1312,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>6327</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
+        <v>45624</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K19" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.93</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>293.54</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="20">
@@ -1393,535 +1337,24 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45514</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20511315922</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>6343</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B255</t>
-        </is>
-      </c>
+        <v>45624</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>6324</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K21" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M21" t="n">
-        <v>293.54</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45514</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>20511315922</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>B255</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>00000000000</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Recibo de Movilidad</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>63112</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>00000001</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>00000000000</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Recibo de Movilidad</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>63112</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>00000001</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>6327</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K25" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M25" t="n">
-        <v>293.54</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1231244</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>312321321</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>312321321</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>45514</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20511315922</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>B255</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>6321</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K30" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M30" t="n">
-        <v>293.54</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>6322</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K31" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M31" t="n">
-        <v>293.54</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -16,20 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,115 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RUC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>TipoDoc</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cuenta Contable</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Serie</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Correlativo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Moneda</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Cambio</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Afecto</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>IGV</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Inafecto</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,377 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>RUC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TipoDoc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cuenta Contable</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Correlativo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Moneda</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de Cambio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Afecto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>IGV</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inafecto</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6323</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M5" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6314</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>00223248</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6312</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M7" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6313</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45641</v>
+        <v>45629</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -537,18 +537,10 @@
         <v>45641</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -559,7 +551,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>4566</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -567,21 +559,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -592,7 +576,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>1700</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -600,29 +584,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
+        <v>45641</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6323</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,20 +604,12 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.93</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>293.54</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="6">
@@ -651,29 +617,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45510</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20512002090</t>
-        </is>
-      </c>
+        <v>45641</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>6314</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>BG53</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00223248</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -681,20 +637,12 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30.11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>35.6</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7">
@@ -702,11 +650,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45508</v>
+        <v>45518</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20512002090</t>
+          <t>20508565934</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -715,16 +663,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6312</v>
+        <v>6323</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BG53</t>
+          <t>BL22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00222840</t>
+          <t>00167160</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -736,16 +684,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>64.89</v>
+        <v>246.28</v>
       </c>
       <c r="K7" t="n">
-        <v>11.68</v>
+        <v>44.33</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03</v>
+        <v>2.93</v>
       </c>
       <c r="M7" t="n">
-        <v>76.59999999999999</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="8">
@@ -753,11 +701,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45518</v>
+        <v>45510</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20508565934</t>
+          <t>20512002090</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -766,16 +714,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6313</v>
+        <v>6314</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BL22</t>
+          <t>BG53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>00223248</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -787,15 +735,117 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M8" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6312</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M9" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6313</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>246.28</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K10" t="n">
         <v>44.33</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L10" t="n">
         <v>2.93</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M10" t="n">
         <v>293.54</v>
       </c>
     </row>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45629</v>
+        <v>45668</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>1221321</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45641</v>
+        <v>45668</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -551,7 +551,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>156</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +559,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45635</v>
+        <v>45668</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -576,277 +584,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>4566</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>6323</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K7" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>293.54</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20512002090</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6314</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>BG53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>00223248</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>30.11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M8" t="n">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20512002090</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>6312</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>BG53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>00222840</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M9" t="n">
-        <v>76.59999999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6313</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K10" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M10" t="n">
-        <v>293.54</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,24 +509,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45668</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>45518</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6324</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.93</v>
+      </c>
       <c r="M2" t="n">
-        <v>1221321</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="3">
@@ -534,24 +560,48 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45668</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>45514</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20511315922</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6325</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B255</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" t="n">
-        <v>1234</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -559,19 +609,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45668</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>45510</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6324</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>00223248</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -579,12 +639,122 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="M4" t="n">
-        <v>1234</v>
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6323</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEW3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00425292</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6325</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M6" t="n">
+        <v>293.54</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,163 +508,63 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6324</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K2" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M2" t="n">
-        <v>293.54</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>45514</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20511315922</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B255</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>12344</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.92</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>45510</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20512002090</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6324</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>BG53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>00223248</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30.11</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45508</v>
+        <v>45518</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20608430301</t>
+          <t>20508565934</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -673,16 +573,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6323</v>
+        <v>6324</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BEW3</t>
+          <t>BL22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00425292</t>
+          <t>00167160</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -694,16 +594,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>14.11</v>
+        <v>246.28</v>
       </c>
       <c r="K5" t="n">
-        <v>2.54</v>
+        <v>44.33</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05</v>
+        <v>2.93</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="6">
@@ -711,50 +611,156 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
+        <v>45701</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K6" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.93</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>293.54</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>123231</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1220</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,259 +508,58 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" s="2" t="n">
+        <v>45729</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1223</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" s="2" t="n">
+        <v>45729</v>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6324</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M5" t="n">
-        <v>293.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>123231</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1220</v>
+      <c r="M3" t="n">
+        <v>12122</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,24 +509,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45729</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>45518</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6323</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" t="n">
-        <v>1223</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45729</v>
+        <v>45753</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -551,7 +577,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -559,7 +585,425 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>12122</v>
+        <v>4554.694</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6321</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20612958271</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Recibo de Movilidad</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>63112</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6325</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>45429.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>4411.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6325</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BG53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00222840</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="J10" t="n">
+        <v>243.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>43.77664</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>287.0968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20612958271</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Recibo de Movilidad</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>63112</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45519</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6322</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="K12" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,60 +445,65 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RUC</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TipoDoc</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cuenta Contable</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Correlativo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tipo de Cambio</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Afecto</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Inafecto</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -508,502 +513,1566 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45732</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6323</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
+          <t>20608280333</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>63111</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>BK18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
+          <t>01113136</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>246.28</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>293.54</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>45753</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45730</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>20512002090</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>6312</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>B559</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>00754452</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.21</v>
+      </c>
       <c r="M3" t="n">
-        <v>4554.694</v>
+        <v>0.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>45753</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bcp</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45729</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>76.59999999999999</v>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6321</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>00167160</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bcp</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>293.54</v>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>12122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20612958271</t>
-        </is>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45730</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Recibo de Movilidad</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>63112</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
+          <t>20376289215</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6313</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>B838</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>00107206</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>18.56</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>45518</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45731</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
+          <t>20538225763</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6321</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>BP23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
+          <t>472343</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>246.28</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>44.33</v>
+        <v>17.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
-        <v>293.54</v>
+        <v>1.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>45750</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bcp</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45518</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>6324</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>BL22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>923.54</v>
+      </c>
+      <c r="L8" t="n">
+        <v>166.2375</v>
+      </c>
       <c r="M8" t="n">
-        <v>45429.6</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1100.775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>45749</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45698</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>20547530552</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>6312</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>B272</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>00114968</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>101.33</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18.24</v>
+      </c>
       <c r="M9" t="n">
-        <v>4411.2</v>
+        <v>0.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>119.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20512002090</t>
-        </is>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45731</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>BG53</t>
-        </is>
+          <t>20608270303</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>6314</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00222840</t>
+          <t>B003</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3.748</v>
+          <t>24327</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
       </c>
       <c r="J10" t="n">
-        <v>243.2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>43.77664</v>
+        <v>49.39</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>287.0968</v>
+        <v>39.52</v>
+      </c>
+      <c r="N10" t="n">
+        <v>97.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>45753</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20612958271</t>
-        </is>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bcp</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45518</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Recibo de Movilidad</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>63112</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6323</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>BL22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>246.28</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>44.33</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.93</v>
+      </c>
+      <c r="N11" t="n">
+        <v>293.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>45519</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bcp</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45721</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6322</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
+          <t>20612958271</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Recibo de Movilidad</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>63112</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>----</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
       </c>
       <c r="J12" t="n">
-        <v>246.28</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>44.33</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>293.54</v>
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bcp</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>6323</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="L13" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="N13" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bcp</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>6324</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="L14" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="N14" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20109072177</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>6315</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B035</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>01127689</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>41.62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20504197469</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>6321</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BL25</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20334403166</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>6322</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>BF33</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>00000073</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>519</v>
+      </c>
+      <c r="N17" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>6312</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>BCI4</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20608430301</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>6313</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>BCI4</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>364438</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20337564373</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>6312</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BP01</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>60073859</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20334403166</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>6315</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>BF33</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>00000073</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20608270303</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>63111</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>B003</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>24327</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>49.39</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="N22" t="n">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>YER SAC</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20504197469</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>6321</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BL25</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="L23" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>6312</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>BL21</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>00167161</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>923.5599999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>166.24</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1100.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20109072177</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>6323</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>B035</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>01127690</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>45749</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1234</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20612958271</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Recibo de Movilidad</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>63112</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20606171766</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>6323</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>B003</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>00001511</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20337564373</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>6322</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BP01</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>60073858</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="K28" t="n">
+        <v>202.22</v>
+      </c>
+      <c r="L28" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>238.64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>3.705</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>8640.059999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>3.705</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>4690.53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>simuladores</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>3.705</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>449494.305</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,30 +530,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcp</t>
+          <t>enueva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rh@mail.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2443423434</t>
-        </is>
-      </c>
+          <t>lchd1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ABONADO</t>
+          <t>POR APROBAR</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45731</v>
+        <v>45581</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20600973585</t>
+          <t>20553190143</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -562,16 +558,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6323</v>
+        <v>6312</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>B205</t>
+          <t>BB01</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00006963</t>
+          <t>00032660</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -583,16 +579,16 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>144</v>
+        <v>12.72</v>
       </c>
       <c r="O2" t="n">
-        <v>25.92</v>
+        <v>2.29</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>169.92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -601,17 +597,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcp</t>
+          <t>enueva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rh@mail.com</t>
+          <t>lchd@mail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2443423434</t>
+          <t>10420666</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -620,121 +616,34 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45625</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10404361193</t>
-        </is>
-      </c>
+        <v>45763</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>6314</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>B001</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>00079232</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>23.86</v>
-      </c>
+        <v>3.75</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>bcp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>rh@mail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2443423434</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ABONADO</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45732</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20606171766</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>6322</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>B003</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>00001511</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,45 +480,50 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Tipo Solicitud</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Cuenta Contable</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Correlativo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tipo de Cambio</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Afecto</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Inafecto</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -535,60 +540,53 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lchd1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>POR APROBAR</t>
+          <t>ABONADO</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20553190143</t>
-        </is>
-      </c>
+        <v>45763</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>6312</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>BB01</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>00032660</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15</v>
+        <v>3.75</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +614,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45763</v>
+        <v>45767</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -624,26 +622,387 @@
           <t>ANT</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>4500</v>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RECHAZADO</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>4531.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>12124343</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>4531.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>4567.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>123213</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,85 +445,90 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Codigo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Empresa</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Usuario</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dni</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RUC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TipoDoc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tipo Solicitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Cuenta Contable</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Correlativo</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Tipo de Cambio</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Afecto</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Inafecto</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -535,57 +540,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>S00001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>ABONADO</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>45763</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>3.75</v>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>4500</v>
       </c>
     </row>
@@ -595,57 +605,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>S00002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ABONADO</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>45767</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
         <v>2344</v>
       </c>
     </row>
@@ -655,57 +670,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>S00002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>ABONADO</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>45767</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
         <v>1234</v>
       </c>
     </row>
@@ -715,57 +735,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>S00003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>RECHAZADO</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>45773</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>3.672</v>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
         <v>4531.25</v>
       </c>
     </row>
@@ -775,57 +800,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>S00003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ABONADO</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>45769</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
         <v>12124343</v>
       </c>
     </row>
@@ -835,53 +865,58 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>S00003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>ABONADO</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="G7" s="2" t="n">
         <v>45773</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>3.672</v>
       </c>
-      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
         <v>4531.24</v>
       </c>
     </row>
@@ -891,58 +926,63 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>S00004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ABONADO</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RECHAZADO</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>3.672</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>4567.97</v>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>1234</v>
       </c>
     </row>
     <row r="9">
@@ -951,57 +991,253 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>S00004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>enueva</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>lchd@mail.com</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10420666</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>ABONADO</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>45769</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G9" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>3.672</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4531.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>S00004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>S00003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4567.97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S00003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>enueva</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>lchd@mail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10420666</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
         <v>123213</v>
       </c>
     </row>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,63 +540,79 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S00001</t>
+          <t>R00002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>enueva</t>
+          <t>niupi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>lchd@mail.com</t>
+          <t>user_dos</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10420666</t>
+          <t>3489393883</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABONADO</t>
+          <t>POR APROBAR</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45763</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>45517</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>6314</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>00167160</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.93</v>
+      </c>
       <c r="S2" t="n">
-        <v>4500</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="3">
@@ -605,48 +621,58 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S00002</t>
+          <t>R00002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>enueva</t>
+          <t>niupi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>lchd@mail.com</t>
+          <t>user_dos</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10420666</t>
+          <t>3489393883</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ABONADO</t>
+          <t>POR APROBAR</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45767</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>45730</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20600973585</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>6313</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>B205</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>00006963</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -657,11 +683,17 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>144</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
       <c r="S3" t="n">
-        <v>2344</v>
+        <v>169.92</v>
       </c>
     </row>
     <row r="4">
@@ -670,48 +702,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S00002</t>
+          <t>R00002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>enueva</t>
+          <t>niupi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>lchd@mail.com</t>
+          <t>user_dos</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10420666</t>
+          <t>3489393883</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ABONADO</t>
+          <t>POR APROBAR</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45767</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>45824</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20612958271</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>63112</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>00000001</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -722,11 +764,17 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
       <c r="S4" t="n">
-        <v>1234</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5">
@@ -735,31 +783,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S00003</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>enueva</t>
+          <t>niupi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lchd@mail.com</t>
+          <t>user_dos</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10420666</t>
+          <t>3489393883</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RECHAZADO</t>
+          <t>ABONADO</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45773</v>
+        <v>45818</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -781,17 +829,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3.672</v>
+        <v>1</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>4531.25</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="6">
@@ -800,22 +848,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S00003</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>enueva</t>
+          <t>niupi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>lchd@mail.com</t>
+          <t>user_dos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10420666</t>
+          <t>3489393883</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -824,7 +872,7 @@
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45769</v>
+        <v>45830</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -839,11 +887,7 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -856,7 +900,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>12124343</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="7">
@@ -865,22 +909,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S00003</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>enueva</t>
+          <t>niupi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>lchd@mail.com</t>
+          <t>user_dos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10420666</t>
+          <t>3489393883</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -889,7 +933,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45773</v>
+        <v>45830</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -904,20 +948,24 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>3.672</v>
+        <v>3.603</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>4531.24</v>
+        <v>4521.77</v>
       </c>
     </row>
     <row r="8">
@@ -926,31 +974,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S00004</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>enueva</t>
+          <t>niupi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>lchd@mail.com</t>
+          <t>user_dos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10420666</t>
+          <t>3489393883</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RECHAZADO</t>
+          <t>ABONADO</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45774</v>
+        <v>45809</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -972,273 +1020,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>3.632</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>S00004</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>enueva</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>lchd@mail.com</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10420666</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ABONADO</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>45774</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>3.672</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>4531.25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>S00004</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>enueva</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>lchd@mail.com</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10420666</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ABONADO</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>45774</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>3678</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>S00003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>enueva</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>lchd@mail.com</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10420666</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ABONADO</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>3.672</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>4567.97</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>S00003</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>enueva</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>lchd@mail.com</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10420666</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>ABONADO</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>45769</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>123213</v>
+        <v>446.74</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,65 +470,70 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Fecha Emision</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Fecha Rendicion</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>RUC</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TipoDoc</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tipo Solicitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cuenta Contable</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Correlativo</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tipo de Cambio</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Afecto</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Inafecto</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -540,7 +545,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R00002</t>
+          <t>R00003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -560,59 +565,62 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>POR APROBAR</t>
+          <t>ABONADO</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
+        <v>45810</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45831</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>20612958271</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Recibo de Movilidad</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>RENDICION</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>6314</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
+      <c r="L2" t="n">
+        <v>63112</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>----</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>246.28</v>
-      </c>
       <c r="Q2" t="n">
-        <v>44.33</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>293.54</v>
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
@@ -621,7 +629,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R00002</t>
+          <t>R00003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -641,59 +649,62 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>POR APROBAR</t>
+          <t>ABONADO</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20600973585</t>
-        </is>
+        <v>45731</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45831</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>20606171766</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>Boleta de Venta</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>RENDICION</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>6313</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>B205</t>
-        </is>
+      <c r="L3" t="n">
+        <v>63111</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00006963</t>
+          <t>B003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>00001511</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>144</v>
-      </c>
       <c r="Q3" t="n">
-        <v>25.92</v>
+        <v>2.11</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="S3" t="n">
-        <v>169.92</v>
+        <v>0.01</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +713,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R00002</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -722,59 +733,44 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>POR APROBAR</t>
+          <t>ABONADO</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45824</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20612958271</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Recibo de Movilidad</t>
-        </is>
-      </c>
+        <v>45818</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>RENDICION</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>63112</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>00000001</t>
-        </is>
-      </c>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1200</v>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>2355</v>
       </c>
     </row>
     <row r="5">
@@ -783,7 +779,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S00002</t>
+          <t>S00003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -807,39 +803,38 @@
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45818</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+        <v>45830</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>2355</v>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="6">
@@ -875,31 +870,32 @@
         <v>45830</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>35.6</v>
       </c>
     </row>
@@ -936,35 +932,36 @@
         <v>45830</v>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>3.603</v>
       </c>
-      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>4521.77</v>
       </c>
     </row>
@@ -974,7 +971,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S00002</t>
+          <t>R00002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -998,39 +995,438 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45809</v>
+        <v>45824</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
+          <t>20612958271</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Recibo de Movilidad</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>63112</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>S00002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>niupi</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>user_dos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3489393883</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>ANT</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>ANTICIPO</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="P9" t="n">
         <v>3.632</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>446.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>S00003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>niupi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>user_dos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3489393883</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>3.603</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>763.84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>R00002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>niupi</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>user_dos</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3489393883</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20508565934</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>6314</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>BL22</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>00167160</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>246.28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="T11" t="n">
+        <v>293.54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R00002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>niupi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>user_dos</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3489393883</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20600973585</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>6313</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>B205</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>00006963</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>144</v>
+      </c>
+      <c r="R12" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>169.92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R00003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>niupi</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>user_dos</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3489393883</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20600973585</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>6314</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>B211</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>00006963</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>144</v>
+      </c>
+      <c r="R13" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>169.92</v>
       </c>
     </row>
   </sheetData>

--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R00003</t>
+          <t>R00004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45810</v>
+        <v>45580</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20612958271</t>
+          <t>20553190143</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Recibo de Movilidad</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -590,16 +590,16 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>63112</v>
+        <v>6322</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>BB01</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>00032660</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -653,19 +653,19 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45731</v>
+        <v>45810</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>45831</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20606171766</t>
+          <t>20612958271</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>63111</v>
+        <v>63112</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>B003</t>
+          <t>----</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>00001511</t>
+          <t>00000001</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -713,7 +713,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S00002</t>
+          <t>R00003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -737,25 +737,37 @@
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45818</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>45731</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20606171766</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>63111</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>B003</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>00001511</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -766,11 +778,17 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01</v>
+      </c>
       <c r="T4" t="n">
-        <v>2355</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -779,7 +797,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S00003</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -803,11 +821,9 @@
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45830</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>45831</v>
-      </c>
+        <v>45818</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
@@ -821,7 +837,11 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>PEN</t>
@@ -834,7 +854,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>134</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="6">
@@ -843,7 +863,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S00002</t>
+          <t>S00003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -869,7 +889,9 @@
       <c r="G6" s="2" t="n">
         <v>45830</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" s="2" t="n">
+        <v>45831</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
@@ -896,7 +918,7 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>35.6</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -945,24 +967,20 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.603</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>4521.77</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="8">
@@ -971,7 +989,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R00002</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -995,56 +1013,40 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>20612958271</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Recibo de Movilidad</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>RENDICION</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>63112</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
+        <v>3.603</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>1200</v>
+        <v>4521.77</v>
       </c>
     </row>
     <row r="9">
@@ -1053,7 +1055,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S00002</t>
+          <t>R00002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1077,40 +1079,56 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45809</v>
+        <v>45824</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20612958271</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>Recibo de Movilidad</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ANTICIPO</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>63112</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>00000001</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.632</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
       <c r="T9" t="n">
-        <v>446.74</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10">
@@ -1119,7 +1137,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S00003</t>
+          <t>S00002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1143,11 +1161,9 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45830</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45831</v>
-      </c>
+        <v>45809</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
@@ -1172,13 +1188,13 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.603</v>
+        <v>3.632</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>763.84</v>
+        <v>446.74</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1203,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R00002</t>
+          <t>S00003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1211,56 +1227,42 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>20508565934</t>
-        </is>
-      </c>
+        <v>45830</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>RENDICION</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>6314</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>BL22</t>
-        </is>
-      </c>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>00167160</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>246.28</v>
-      </c>
-      <c r="R11" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.93</v>
-      </c>
+        <v>3.603</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>293.54</v>
+        <v>763.84</v>
       </c>
     </row>
     <row r="12">
@@ -1293,12 +1295,12 @@
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45730</v>
+        <v>45517</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20600973585</t>
+          <t>20508565934</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1312,16 +1314,16 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6313</v>
+        <v>6314</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>B205</t>
+          <t>BL22</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>00006963</t>
+          <t>00167160</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1333,16 +1335,16 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>144</v>
+        <v>246.28</v>
       </c>
       <c r="R12" t="n">
-        <v>25.92</v>
+        <v>44.33</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="T12" t="n">
-        <v>169.92</v>
+        <v>293.54</v>
       </c>
     </row>
     <row r="13">
@@ -1351,7 +1353,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R00003</t>
+          <t>R00002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1377,9 +1379,7 @@
       <c r="G13" s="2" t="n">
         <v>45730</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>45831</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>20600973585</t>
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6314</v>
+        <v>6313</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>B211</t>
+          <t>B205</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1426,6 +1426,90 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>169.92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>R00003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>niupi</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>user_dos</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3489393883</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ABONADO</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20600973585</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>RENDICION</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>6314</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>B211</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>00006963</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>144</v>
+      </c>
+      <c r="R14" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>169.92</v>
       </c>
     </row>
